--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122905.736723523</v>
+        <v>2120361.927216441</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283201</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9746293.907297963</v>
+        <v>9746293.907297965</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>79.24302978361796</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.6326967715736</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>129.3942076466391</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.3472481984266</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>58.54505840827895</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>60.96760033386413</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.36698404190659</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868264</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.8563301598665</v>
       </c>
       <c r="X6" t="n">
-        <v>155.2537761190401</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>53.36410705247989</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>253.7185161274794</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>48.86647696613785</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>197.8244010340227</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908775</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775160372</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115256</v>
+        <v>20.24979976115227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>20.53952247907032</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>23.91773138700617</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>60.64713141730758</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272919</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>115.7228684476123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788174895</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183125</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.3555494301481</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613218326</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.3687739767479</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>79.41314830963637</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678359059</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133655997</v>
       </c>
       <c r="C2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133655997</v>
       </c>
       <c r="D2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133655997</v>
       </c>
       <c r="E2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133655997</v>
       </c>
       <c r="F2" t="n">
-        <v>114.1043876014619</v>
+        <v>416.9099126163962</v>
       </c>
       <c r="G2" t="n">
-        <v>101.1405748280174</v>
+        <v>403.9460998429518</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.2826908791755</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052536</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.51749475159</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991306</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358402</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601761</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946875</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298155</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>686.1106626298155</v>
       </c>
       <c r="V2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133655997</v>
       </c>
       <c r="W2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133655997</v>
       </c>
       <c r="X2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133655997</v>
       </c>
       <c r="Y2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133655997</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.0874629353336</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="C3" t="n">
-        <v>373.6344336542066</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="D3" t="n">
-        <v>224.7000239929554</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004794</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699335</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.87400723023</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267537</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293586</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560883</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789492</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098629</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413005</v>
       </c>
       <c r="U3" t="n">
-        <v>924.1543001609346</v>
+        <v>481.274297278114</v>
       </c>
       <c r="V3" t="n">
-        <v>924.1543001609346</v>
+        <v>481.274297278114</v>
       </c>
       <c r="W3" t="n">
-        <v>924.1543001609346</v>
+        <v>227.0369405499123</v>
       </c>
       <c r="X3" t="n">
-        <v>716.3027999554017</v>
+        <v>227.0369405499123</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.3027999554017</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.1499327403632</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>171.2137498124562</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726550998</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375323</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227033</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075528</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816801</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R4" t="n">
-        <v>995.7190973713994</v>
+        <v>926.0629918407061</v>
       </c>
       <c r="S4" t="n">
-        <v>788.9320627819106</v>
+        <v>719.2759572512175</v>
       </c>
       <c r="T4" t="n">
-        <v>788.9320627819106</v>
+        <v>719.2759572512175</v>
       </c>
       <c r="U4" t="n">
-        <v>788.9320627819106</v>
+        <v>657.6925225705467</v>
       </c>
       <c r="V4" t="n">
-        <v>788.9320627819106</v>
+        <v>403.0080343646598</v>
       </c>
       <c r="W4" t="n">
-        <v>788.9320627819106</v>
+        <v>403.0080343646598</v>
       </c>
       <c r="X4" t="n">
-        <v>560.9425118838933</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.1499327403632</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>646.8597007358178</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>380.4820441686398</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
         <v>307.3840804899463</v>
@@ -4565,52 +4565,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="V5" t="n">
-        <v>646.8597007358178</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="W5" t="n">
-        <v>646.8597007358178</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="X5" t="n">
-        <v>646.8597007358178</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="Y5" t="n">
-        <v>646.8597007358178</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>904.2569522304907</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.219221609864</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>474.2580350095589</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>879.6976401329762</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.900151480424</v>
+        <v>225.1168882493046</v>
       </c>
       <c r="C7" t="n">
-        <v>315.900151480424</v>
+        <v>225.1168882493046</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>75.00024883696886</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>75.00024883696886</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,49 +4726,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>445.9094673928347</v>
       </c>
       <c r="W7" t="n">
-        <v>543.8897023784414</v>
+        <v>445.9094673928347</v>
       </c>
       <c r="X7" t="n">
-        <v>315.900151480424</v>
+        <v>445.9094673928347</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.900151480424</v>
+        <v>225.1168882493046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>797.05078947115</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>428.0882725307382</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>69.8225739239877</v>
+        <v>926.0816186986465</v>
       </c>
       <c r="E8" t="n">
-        <v>69.8225739239877</v>
+        <v>540.2933661004023</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478424</v>
+        <v>533.3478653511988</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685544</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685544</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685544</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607407</v>
+        <v>442.1757437607434</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045899</v>
+        <v>795.1862829045954</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995222</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209578</v>
+        <v>1655.591685209589</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940588</v>
+        <v>2053.905718940601</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550188</v>
+        <v>2359.356530550204</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661153</v>
+        <v>2540.56462266117</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342772</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342772</v>
+        <v>2435.830015762143</v>
       </c>
       <c r="T8" t="n">
-        <v>2511.202682599198</v>
+        <v>2227.077931858416</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.621504124768</v>
+        <v>2227.077931858416</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.558616781198</v>
+        <v>2227.077931858416</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.789961511083</v>
+        <v>1874.309276588302</v>
       </c>
       <c r="X8" t="n">
-        <v>1573.789961511083</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1183.650629535272</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010668</v>
+        <v>929.509720801085</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199398</v>
+        <v>755.056691519958</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586886</v>
+        <v>606.1222818587067</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532331</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801181</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763062</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993883</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685544</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="J9" t="n">
-        <v>113.488757963718</v>
+        <v>113.4887579637192</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381305</v>
+        <v>559.9063389572716</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716107</v>
+        <v>854.4423223907536</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945911</v>
+        <v>1217.508790865056</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418479</v>
+        <v>1851.248074049896</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405867</v>
+        <v>2183.134884037286</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789028</v>
+        <v>2430.170242466911</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342772</v>
+        <v>2545.387641020657</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342772</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251687</v>
+        <v>2424.826280251706</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685336</v>
+        <v>2230.816477685355</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751566</v>
+        <v>2002.726321751584</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519823</v>
+        <v>1767.574213519841</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791622</v>
+        <v>1513.33685679164</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586089</v>
+        <v>1305.485356586107</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821135</v>
+        <v>1097.725057821153</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274016</v>
+        <v>367.0373856326731</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994947</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871589</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047658</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685544</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685544</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685544</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685544</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380094</v>
+        <v>76.63468308380179</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676557</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368902</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904011</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101609</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931087</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616496</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477359</v>
+        <v>1533.156055412622</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477359</v>
+        <v>1336.515802634456</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477359</v>
+        <v>1113.534501108862</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477359</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271472</v>
+        <v>838.1030204998733</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234511</v>
+        <v>548.6858504629128</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601171</v>
+        <v>548.6858504629128</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576413</v>
+        <v>548.6858504629128</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327606</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048538</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>444.701316492518</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101249</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603198</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947395</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806531</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876643</v>
+        <v>762.5477693179076</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597574</v>
+        <v>593.6115863900008</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597574</v>
+        <v>443.494946977665</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597574</v>
+        <v>295.5818533952719</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597574</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746373</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168354</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.10824923516</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258101</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602299</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396412</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359451</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614341</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317904</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,16 +6069,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,10 +6239,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6260,16 +6260,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>513.853600740078</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>513.853600740078</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>363.7369613277423</v>
       </c>
       <c r="E31" t="n">
-        <v>483.8760050556308</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>483.8760050556308</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>316.6799057705107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038412</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797813</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910816</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279809</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853368</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983267</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487574</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510515</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854713</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648826</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611865</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138479</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703178</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>550.9217088032285</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>403.0086152208337</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>256.1186677229233</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814783028</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038414</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797815</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910816</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279809</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853368</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983267</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487574</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854713</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648826</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138484</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961068995</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415534</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>5.262887399594689</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821354</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538086</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348541</v>
+        <v>36.31458639917527</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.77391660562367</v>
+        <v>66.36248435538654</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,10 +23701,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532812</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353039063</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143859</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9259388694759423</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>86.11098998263247</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685042</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229243</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>856777.7080615715</v>
+        <v>856777.7080615716</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>862028.9970192489</v>
+        <v>862028.997019249</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837694.3120874657</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874657</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752541</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
@@ -26338,10 +26338,10 @@
         <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752548</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752545</v>
@@ -26350,10 +26350,10 @@
         <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911926</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658076</v>
+        <v>390680.007658081</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606961</v>
+        <v>507909.2320606916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911395</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.413055279013171e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101693</v>
+        <v>95270.23779101809</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954697</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251227.3656190198</v>
+        <v>251227.36561902</v>
       </c>
       <c r="C4" t="n">
-        <v>251227.3656190198</v>
+        <v>251227.3656190199</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501125</v>
+        <v>140465.2517501112</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179355</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179363</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179363</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="K4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179354</v>
-      </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179363</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179356</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426617</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567874</v>
+        <v>92902.86757567911</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399107.8662628743</v>
+        <v>-399107.8662628737</v>
       </c>
       <c r="C6" t="n">
-        <v>280980.1143283191</v>
+        <v>280980.1143283194</v>
       </c>
       <c r="D6" t="n">
-        <v>-28792.84383226209</v>
+        <v>-28792.84383226551</v>
       </c>
       <c r="E6" t="n">
-        <v>-35017.50936114244</v>
+        <v>-35052.24728657345</v>
       </c>
       <c r="F6" t="n">
-        <v>472891.7226995538</v>
+        <v>472856.9847741182</v>
       </c>
       <c r="G6" t="n">
-        <v>472891.7226995535</v>
+        <v>472856.9847741175</v>
       </c>
       <c r="H6" t="n">
-        <v>472891.7226995539</v>
+        <v>472856.9847741183</v>
       </c>
       <c r="I6" t="n">
-        <v>472891.7226995538</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="J6" t="n">
-        <v>403892.5682804398</v>
+        <v>403857.8303550041</v>
       </c>
       <c r="K6" t="n">
-        <v>472891.7226995538</v>
+        <v>472856.9847741178</v>
       </c>
       <c r="L6" t="n">
-        <v>377621.4849085372</v>
+        <v>377586.7469830998</v>
       </c>
       <c r="M6" t="n">
-        <v>340173.7470040841</v>
+        <v>340139.0090786496</v>
       </c>
       <c r="N6" t="n">
-        <v>472891.7226995539</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="O6" t="n">
-        <v>472891.7226995539</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="P6" t="n">
-        <v>472891.722699554</v>
+        <v>472856.9847741182</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.48434264755031e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.48434264755031e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.48434264755031e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.48434264755031e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627804</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085693</v>
+        <v>640.1406900856975</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933022</v>
+        <v>319.6474457933062</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788933</v>
+        <v>434.2730407788895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841868</v>
+        <v>376.4268100841914</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139554</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015056</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841868</v>
+        <v>376.4268100841914</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139554</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841868</v>
+        <v>376.4268100841914</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139554</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>234.9506028456501</v>
+        <v>50.4797526277622</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>68.11956169856131</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>96.46027985691552</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3354475788778</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>68.95954447538499</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>225.2910301688133</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>282.3160575787764</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>50.47975262776191</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514523</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.838653001053103</v>
       </c>
       <c r="X6" t="n">
-        <v>50.51920908443734</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.05694097045135</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>32.80448220911163</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465074</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348409</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>157.798086098552</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.9066996444463</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164523484</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77644916454139</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503846</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>265.687667291234</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>201.791924002031</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-3.641193645448922e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.097847330286107e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28752,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="N19" t="n">
-        <v>-4.489581671946483e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-3.197455209038191e-12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>7.044936159343643e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29755,13 +29755,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>7.48434264755031e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.694951207129925e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>7.173766806643252e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.48434264755031e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30390,7 +30390,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>6.985236134088239e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885546</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546661</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157552</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972524</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763177</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354914</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359921</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525058</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307877</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983006</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542119</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864744</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140448</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944149</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508437</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436924</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035135</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026252</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107942</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502159</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571269</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617153</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.33605801522</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451907</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947579</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463695</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204785</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366389</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133913</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.132127706541903</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752555</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.9698525484</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415866</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954056</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772513</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490117</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023118</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462343</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046248</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708725</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939798</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307394</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658769</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942731</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650309</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127164</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,22 +34860,22 @@
         <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043487</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>123.5028874333356</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705662</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313372</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655042</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087194</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559149</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091009</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430311</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797624</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2001390723423</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127534</v>
+        <v>62.90656844127614</v>
       </c>
       <c r="K9" t="n">
-        <v>396.9388283579923</v>
+        <v>450.9268494884369</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772527</v>
+        <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539697</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318868</v>
+        <v>640.1406900856975</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074626</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203648</v>
+        <v>249.5306650804292</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660348</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.32840335569037</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873283</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513684</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093278</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641524</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254629</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186645</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035766</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228544</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899029</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409642</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191314</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326296054</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
